--- a/整合結果/自由時報_財經/excel_by_week/2025_W23.xlsx
+++ b/整合結果/自由時報_財經/excel_by_week/2025_W23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>00687B、00933B今公告預估配息 最後買進日6/16</t>
+          <t>永豐5檔ETF將除息 6/23最後買進日</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5061830</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5062219</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>關稅戰引市場波動 基富通低檔自動加碼助力定期定額</t>
+          <t>財部再釋38戶房地包租 年租金底價299萬</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5061847</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5062097</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>買氣未見起色 5月六都買賣移轉棟數年減36％</t>
+          <t>財部再釋38戶房地包租 年租金底價299萬</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5062006</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5062097</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>財部再釋38戶房地包租 年租金底價299萬</t>
+          <t>買氣未見起色 5月六都買賣移轉棟數年減36％</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5062097</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5062006</t>
         </is>
       </c>
     </row>
@@ -543,282 +543,656 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>永豐5檔ETF將除息 6/23最後買進日</t>
+          <t>買氣未見起色 5月六都買賣移轉棟數年減36％</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5062219</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5062006</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>離婚時給付財產或贍養費 這種情況免課贈與稅</t>
+          <t>永豐5檔ETF將除息 6/23最後買進日</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5062292</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5062219</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>黃金大漲！登3週多來高點</t>
+          <t>關稅戰引市場波動 基富通低檔自動加碼助力定期定額</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5062399</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5061847</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>境外基金龍虎榜 無懼震盪淬鍊 這檔基金今年來績效大漲62％奪冠</t>
+          <t>00687B、00933B今公告預估配息 最後買進日6/16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5062439</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5061830</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>信用管制強碰交屋潮 去年Q4六都房貸件數、成數同步下滑</t>
+          <t>00687B、00933B今公告預估配息 最後買進日6/16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5062745</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5061830</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>竹北「天坑」事件預售案 百貨樓層以逾162億元移轉</t>
+          <t>擺脫普通人關鍵！專家：先學會有錢人此項思維</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5064062</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5061584</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>房價泡沫破裂？全美20個大城市房價下跌 專家 : 最抗跌的「這區」也鬆動了</t>
+          <t>關稅戰引市場波動 基富通低檔自動加碼助力定期定額</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5063706</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5061847</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>大台北捷運站房租前十低區域 頂埔站以每坪745元最親民</t>
+          <t>離婚時給付財產或贍養費 這種情況免課贈與稅</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5064043</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5062292</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>黃金高點下殺後又上漲 「短期走勢」專家全說了</t>
+          <t>離婚時給付財產或贍養費 這種情況免課贈與稅</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5064946</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5062292</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>北北桃竹蛋黃區新案開價 仍站在高崗上</t>
+          <t>黃金大漲！登3週多來高點</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5065079</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5062399</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>新北蛋黃區住不起！永和預售屋成交均價每坪逾92萬</t>
+          <t>黃金大漲！登3週多來高點</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5065259</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5062399</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>房地合一稅稅率20％貢獻424億稅收 佔比逾51％</t>
+          <t>境外基金龍虎榜 無懼震盪淬鍊 這檔基金今年來績效大漲62％奪冠</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5065526</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5062439</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>吸金神器！0050規模突破6000億元、再創新高</t>
+          <t>境外基金龍虎榜 無懼震盪淬鍊 這檔基金今年來績效大漲62％奪冠</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5065710</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5062439</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>代銷業者喊每坪降20萬？興富發：「降價」議題只是銷售策略</t>
+          <t>信用管制強碰交屋潮 去年Q4六都房貸件數、成數同步下滑</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5065797</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5062745</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>每天都覺得好累？專家揭5大跡象：你正過著「B+人生」！</t>
+          <t>信用管制強碰交屋潮 去年Q4六都房貸件數、成數同步下滑</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5066129</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5062745</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>黃金再下跌！「1原因」對金價超不利</t>
+          <t>竹北「天坑」事件預售案 百貨樓層以逾162億元移轉</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5067225</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5064062</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>竹北「天坑」事件預售案 百貨樓層以逾162億元移轉</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5064062</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>大台北捷運站房租前十低區域 頂埔站以每坪745元最親民</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5064043</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>房價泡沫破裂？全美20個大城市房價下跌 專家 : 最抗跌的「這區」也鬆動了</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5063706</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>房價泡沫破裂？全美20個大城市房價下跌 專家 : 最抗跌的「這區」也鬆動了</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5063706</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>大台北捷運站房租前十低區域 頂埔站以每坪745元最親民</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5064043</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>房地合一稅稅率20％貢獻424億稅收 佔比逾51％</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5065526</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>代銷業者喊每坪降20萬？興富發：「降價」議題只是銷售策略</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5065797</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>代銷業者喊每坪降20萬？興富發：「降價」議題只是銷售策略</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5065797</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>吸金神器！0050規模突破6000億元、再創新高</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5065710</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>吸金神器！0050規模突破6000億元、再創新高</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5065710</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>房地合一稅稅率20％貢獻424億稅收 佔比逾51％</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5065526</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>新北蛋黃區住不起！永和預售屋成交均價每坪逾92萬</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5065259</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>北北桃竹蛋黃區新案開價 仍站在高崗上</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5065079</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>北北桃竹蛋黃區新案開價 仍站在高崗上</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5065079</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>黃金高點下殺後又上漲 「短期走勢」專家全說了</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5064946</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>黃金高點下殺後又上漲 「短期走勢」專家全說了</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5064946</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>新北蛋黃區住不起！永和預售屋成交均價每坪逾92萬</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5065259</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>每天都覺得好累？專家揭5大跡象：你正過著「B+人生」！</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5066129</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>每天都覺得好累？專家揭5大跡象：你正過著「B+人生」！</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5066129</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>2025-06-07</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>黃金再下跌！「1原因」對金價超不利</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5067225</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-06-07</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>今年第一季高雄市房貸申請案 鼓山區鑑估值最高</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5067316</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-06-07</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>黃金再下跌！「1原因」對金價超不利</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5067225</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-06-07</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>今年第一季高雄市房貸申請案 鼓山區鑑估值最高</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>https://ec.ltn.com.tw/article/breakingnews/5067316</t>
         </is>
